--- a/data/trans_bre/P1432-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1432-Clase-trans_bre.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.031846344157155</v>
+        <v>-1.986905080817102</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.09803661918409196</v>
+        <v>-0.07701691022633447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6497423221713357</v>
+        <v>-0.6428576204432505</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2269572034721204</v>
+        <v>0.2794410359284107</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.640811922876581</v>
+        <v>2.393948393336627</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.977104449603718</v>
+        <v>1.605283298459929</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.48829705005646</v>
+        <v>-1.637357659458391</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.243754392190102</v>
+        <v>-1.250534866918534</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.4508078267056362</v>
+        <v>-0.425023046751304</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8359882223784626</v>
+        <v>-0.8445202948144702</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -730,16 +730,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.543561534888457</v>
+        <v>1.34667732995185</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.77683056996165</v>
+        <v>2.848270848657988</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.991476570543216</v>
+        <v>2.784132226023237</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -782,16 +782,18 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.479289444833787</v>
+        <v>-1.309346169277227</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.465140252888459</v>
+        <v>-1.534578783580816</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7713184402560974</v>
+        <v>-0.6511284359909654</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
-      <c r="G11" s="6" t="inlineStr"/>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
@@ -802,16 +804,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.112476230411416</v>
+        <v>3.546177168949614</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.837728683714169</v>
+        <v>1.817273436143388</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.710766999551781</v>
+        <v>3.865375433819714</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
-      <c r="G12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="n">
+        <v>3.711208423885294</v>
+      </c>
       <c r="H12" s="6" t="inlineStr"/>
     </row>
     <row r="13">
@@ -852,22 +856,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.286689549301943</v>
+        <v>-1.330791467184244</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.027359384519131</v>
+        <v>-1.073611931215627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006217829525313742</v>
+        <v>0.01974068335891311</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.78122891242295</v>
+        <v>-0.7976482529781658</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8113523394165351</v>
+        <v>-0.8178122467859458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2743120622015126</v>
+        <v>-0.1396209204477047</v>
       </c>
     </row>
     <row r="15">
@@ -878,22 +882,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4869262580185772</v>
+        <v>0.508533497325232</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6355397669544327</v>
+        <v>0.6579251017503467</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.72572421475716</v>
+        <v>1.835798901265509</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.653059480461758</v>
+        <v>0.5698348992944903</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.631848733740927</v>
+        <v>1.694260694259748</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9.071730713742209</v>
+        <v>9.174090844601626</v>
       </c>
     </row>
     <row r="16">
@@ -934,22 +938,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.407228677609318</v>
+        <v>-1.364123968275293</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8545116092411148</v>
+        <v>0.8609424281425939</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.040583403433127</v>
+        <v>-1.022698817442053</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.6138777993325577</v>
+        <v>-0.5814083410432722</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4097004197509029</v>
+        <v>0.2830775337498474</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6920624994703004</v>
+        <v>-0.7126420784634406</v>
       </c>
     </row>
     <row r="18">
@@ -960,22 +964,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.043244734173371</v>
+        <v>2.081232029699787</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.715965886772712</v>
+        <v>3.730082248046284</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.084426308991909</v>
+        <v>1.042705283477237</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3.675078454016892</v>
+        <v>3.933882269563027</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>16.57084741010272</v>
+        <v>19.48854862864506</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.695956499209815</v>
+        <v>2.228915816891134</v>
       </c>
     </row>
     <row r="19">
@@ -1022,13 +1026,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.344180953102742</v>
+        <v>1.338284807082904</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.47822735063838</v>
+        <v>1.527786850352282</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.495756354213776</v>
+        <v>1.53951412064487</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
@@ -1042,13 +1046,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.095038903368729</v>
+        <v>3.161322016577454</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.414384570198133</v>
+        <v>3.382953149118218</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.479498389853905</v>
+        <v>3.478136953313673</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
@@ -1092,22 +1096,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1084488092431397</v>
+        <v>-0.1679222709430538</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.444829719569573</v>
+        <v>0.4420514873565344</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4686234006133934</v>
+        <v>0.4744084477480443</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.08535973273253555</v>
+        <v>-0.1340388714332822</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4362492294432936</v>
+        <v>0.4534891193843568</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.652011411566177</v>
+        <v>0.6061373563240899</v>
       </c>
     </row>
     <row r="24">
@@ -1118,22 +1122,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9621867470862075</v>
+        <v>0.9676757307153594</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.527401803771442</v>
+        <v>1.530305862114255</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.440377876061682</v>
+        <v>1.450468049293018</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.146909255248009</v>
+        <v>1.157629216714034</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.286326642740585</v>
+        <v>3.329141700307752</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>4.099817727714722</v>
+        <v>3.937012428191374</v>
       </c>
     </row>
     <row r="25">
